--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -434,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>69.4229112833764</v>
+        <v>69.8292588280947</v>
       </c>
       <c r="C2" t="n">
-        <v>68.0976600201151</v>
+        <v>68.5760318781138</v>
       </c>
       <c r="D2" t="n">
-        <v>70.7481625466377</v>
+        <v>71.0824857780756</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -604,13 +607,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>88.6793048685814</v>
+        <v>73.7030446174456</v>
       </c>
       <c r="C12" t="n">
-        <v>86.3470679760755</v>
+        <v>69.878456698014</v>
       </c>
       <c r="D12" t="n">
-        <v>91.0115417610873</v>
+        <v>77.5276325368771</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -621,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>64.3179875175029</v>
+        <v>88.6793048685814</v>
       </c>
       <c r="C13" t="n">
-        <v>61.6097499937598</v>
+        <v>86.3470679760755</v>
       </c>
       <c r="D13" t="n">
-        <v>67.026225041246</v>
+        <v>91.0115417610873</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -635,220 +638,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>61.087235165498</v>
+        <v>64.3525605205821</v>
       </c>
       <c r="C14" t="n">
-        <v>60.2574515435908</v>
+        <v>61.6503070280749</v>
       </c>
       <c r="D14" t="n">
-        <v>61.9170187874052</v>
+        <v>67.0548140130892</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>64.0925266903915</v>
+        <v>60.2125725473743</v>
       </c>
       <c r="C15" t="n">
-        <v>62.8381883575706</v>
+        <v>59.4103468056592</v>
       </c>
       <c r="D15" t="n">
-        <v>65.3468650232123</v>
+        <v>61.0147982890894</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>61.8663594470046</v>
+        <v>64.0925266903915</v>
       </c>
       <c r="C16" t="n">
-        <v>58.6332533479801</v>
+        <v>62.8381883575706</v>
       </c>
       <c r="D16" t="n">
-        <v>65.0994655460292</v>
+        <v>65.3468650232123</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>58.8080631025416</v>
+        <v>61.8663594470046</v>
       </c>
       <c r="C17" t="n">
-        <v>55.950997516897</v>
+        <v>58.6332533479801</v>
       </c>
       <c r="D17" t="n">
-        <v>61.6651286881863</v>
+        <v>65.0994655460292</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>76.6146993318486</v>
+        <v>58.8080631025416</v>
       </c>
       <c r="C18" t="n">
-        <v>73.8447016901658</v>
+        <v>55.950997516897</v>
       </c>
       <c r="D18" t="n">
-        <v>79.3846969735313</v>
+        <v>61.6651286881863</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>58.3747927031509</v>
+        <v>76.6146993318486</v>
       </c>
       <c r="C19" t="n">
-        <v>54.4371099293782</v>
+        <v>73.8447016901658</v>
       </c>
       <c r="D19" t="n">
-        <v>62.3124754769236</v>
+        <v>79.3846969735313</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>69.8776758409786</v>
+        <v>58.3747927031509</v>
       </c>
       <c r="C20" t="n">
-        <v>66.3587917225267</v>
+        <v>54.4371099293782</v>
       </c>
       <c r="D20" t="n">
-        <v>73.3965599594305</v>
+        <v>62.3124754769236</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>60.1520086862106</v>
+        <v>69.8776758409786</v>
       </c>
       <c r="C21" t="n">
-        <v>56.9884021682769</v>
+        <v>66.3587917225267</v>
       </c>
       <c r="D21" t="n">
-        <v>63.3156152041444</v>
+        <v>73.3965599594305</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>64.1121495327103</v>
+        <v>60.1520086862106</v>
       </c>
       <c r="C22" t="n">
-        <v>60.0437709923307</v>
+        <v>56.9884021682769</v>
       </c>
       <c r="D22" t="n">
-        <v>68.1805280730898</v>
+        <v>63.3156152041444</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>54.7600619195046</v>
+        <v>64.1121495327103</v>
       </c>
       <c r="C23" t="n">
-        <v>52.8406028568347</v>
+        <v>60.0437709923307</v>
       </c>
       <c r="D23" t="n">
-        <v>56.6795209821746</v>
+        <v>68.1805280730898</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>86.1635220125786</v>
+        <v>54.7600619195046</v>
       </c>
       <c r="C24" t="n">
-        <v>84.3739277779818</v>
+        <v>52.8406028568347</v>
       </c>
       <c r="D24" t="n">
-        <v>87.9531162471754</v>
+        <v>56.6795209821746</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>51.0474090407938</v>
+        <v>49.0366088631985</v>
       </c>
       <c r="C25" t="n">
-        <v>49.4205534402466</v>
+        <v>45.9939862652864</v>
       </c>
       <c r="D25" t="n">
-        <v>52.674264641341</v>
+        <v>52.0792314611106</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>68.4772929652716</v>
+        <v>86.1635220125786</v>
       </c>
       <c r="C26" t="n">
-        <v>66.9082057123618</v>
+        <v>84.3739277779818</v>
       </c>
       <c r="D26" t="n">
-        <v>70.0463802181814</v>
+        <v>87.9531162471754</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>69.2046227056424</v>
+        <v>51.0474090407938</v>
       </c>
       <c r="C27" t="n">
-        <v>66.8446893378895</v>
+        <v>49.4205534402466</v>
       </c>
       <c r="D27" t="n">
-        <v>71.5645560733954</v>
+        <v>52.674264641341</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -873,186 +876,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>74.6034263014294</v>
+        <v>67.769744160178</v>
       </c>
       <c r="C28" t="n">
-        <v>68.8775949103195</v>
+        <v>66.2420077007992</v>
       </c>
       <c r="D28" t="n">
-        <v>80.3292576925394</v>
+        <v>69.2974806195568</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>62.5467949993683</v>
+        <v>69.2046227056424</v>
       </c>
       <c r="C29" t="n">
-        <v>57.0142946504697</v>
+        <v>66.8446893378895</v>
       </c>
       <c r="D29" t="n">
-        <v>68.079295348267</v>
+        <v>71.5645560733954</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>84.382761691205</v>
+        <v>74.6034263014294</v>
       </c>
       <c r="C30" t="n">
-        <v>79.6707142567559</v>
+        <v>68.8775949103195</v>
       </c>
       <c r="D30" t="n">
-        <v>89.0948091256541</v>
+        <v>80.3292576925394</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>63.5179666986991</v>
+        <v>62.5467949993683</v>
       </c>
       <c r="C31" t="n">
-        <v>56.2388067660411</v>
+        <v>57.0142946504697</v>
       </c>
       <c r="D31" t="n">
-        <v>70.7971266313571</v>
+        <v>68.079295348267</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>71.8903546972766</v>
+        <v>84.382761691205</v>
       </c>
       <c r="C32" t="n">
-        <v>65.2490293963759</v>
+        <v>79.6707142567559</v>
       </c>
       <c r="D32" t="n">
-        <v>78.5316799981772</v>
+        <v>89.0948091256541</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>63.5997401606016</v>
+        <v>63.5179666986991</v>
       </c>
       <c r="C33" t="n">
-        <v>57.4247964311879</v>
+        <v>56.2388067660411</v>
       </c>
       <c r="D33" t="n">
-        <v>69.7746838900152</v>
+        <v>70.7971266313571</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>66.4476109713906</v>
+        <v>71.8903546972766</v>
       </c>
       <c r="C34" t="n">
-        <v>58.7086709253113</v>
+        <v>65.2490293963759</v>
       </c>
       <c r="D34" t="n">
-        <v>74.1865510174699</v>
+        <v>78.5316799981772</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>63.8969637303536</v>
+        <v>63.5997401606016</v>
       </c>
       <c r="C35" t="n">
-        <v>60.1572228297892</v>
+        <v>57.4247964311879</v>
       </c>
       <c r="D35" t="n">
-        <v>67.636704630918</v>
+        <v>69.7746838900152</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>89.6012174761382</v>
+        <v>66.4476109713906</v>
       </c>
       <c r="C36" t="n">
-        <v>86.3987584583146</v>
+        <v>58.7086709253113</v>
       </c>
       <c r="D36" t="n">
-        <v>92.8036764939619</v>
+        <v>74.1865510174699</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>61.6445955201702</v>
+        <v>63.8969637303536</v>
       </c>
       <c r="C37" t="n">
-        <v>58.4905098202443</v>
+        <v>60.1572228297892</v>
       </c>
       <c r="D37" t="n">
-        <v>64.798681220096</v>
+        <v>67.636704630918</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>70.3193487789605</v>
+        <v>57.5264020480326</v>
       </c>
       <c r="C38" t="n">
-        <v>68.73473742063</v>
+        <v>51.0819350586667</v>
       </c>
       <c r="D38" t="n">
-        <v>71.9039601372911</v>
+        <v>63.9708690373986</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1060,16 +1063,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>72.7946627131208</v>
+        <v>89.6012174761382</v>
       </c>
       <c r="C39" t="n">
-        <v>70.419026311694</v>
+        <v>86.3987584583146</v>
       </c>
       <c r="D39" t="n">
-        <v>75.1702991145477</v>
+        <v>92.8036764939619</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1077,16 +1080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>73.8474370533627</v>
+        <v>61.6688815191437</v>
       </c>
       <c r="C40" t="n">
-        <v>67.9036494022889</v>
+        <v>58.5214620445434</v>
       </c>
       <c r="D40" t="n">
-        <v>79.7912247044364</v>
+        <v>64.816300993744</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1094,169 +1097,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>71.6690907188436</v>
+        <v>69.8216340621404</v>
       </c>
       <c r="C41" t="n">
-        <v>66.2641782592817</v>
+        <v>68.2954266758787</v>
       </c>
       <c r="D41" t="n">
-        <v>77.0740031784054</v>
+        <v>71.3478414484021</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>82.4078807290511</v>
+        <v>72.7946627131208</v>
       </c>
       <c r="C42" t="n">
-        <v>77.6498856266684</v>
+        <v>70.419026311694</v>
       </c>
       <c r="D42" t="n">
-        <v>87.1658758314338</v>
+        <v>75.1702991145477</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>57.5376551680622</v>
+        <v>73.8474370533627</v>
       </c>
       <c r="C43" t="n">
-        <v>48.9747492540707</v>
+        <v>67.9036494022889</v>
       </c>
       <c r="D43" t="n">
-        <v>66.1005610820538</v>
+        <v>79.7912247044364</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>78.7442104370266</v>
+        <v>71.6690907188436</v>
       </c>
       <c r="C44" t="n">
-        <v>72.3035533188592</v>
+        <v>66.2641782592817</v>
       </c>
       <c r="D44" t="n">
-        <v>85.184867555194</v>
+        <v>77.0740031784054</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>68.9039943410698</v>
+        <v>82.4078807290511</v>
       </c>
       <c r="C45" t="n">
-        <v>62.7483051578918</v>
+        <v>77.6498856266684</v>
       </c>
       <c r="D45" t="n">
-        <v>75.0596835242478</v>
+        <v>87.1658758314338</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>67.4089038592864</v>
+        <v>57.5376551680622</v>
       </c>
       <c r="C46" t="n">
-        <v>58.9875342915905</v>
+        <v>48.9747492540707</v>
       </c>
       <c r="D46" t="n">
-        <v>75.8302734269823</v>
+        <v>66.1005610820538</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>65.1478315603903</v>
+        <v>78.7442104370266</v>
       </c>
       <c r="C47" t="n">
-        <v>61.4347251305865</v>
+        <v>72.3035533188592</v>
       </c>
       <c r="D47" t="n">
-        <v>68.8609379901941</v>
+        <v>85.184867555194</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>88.8147313846043</v>
+        <v>68.9039943410698</v>
       </c>
       <c r="C48" t="n">
-        <v>85.6031942993479</v>
+        <v>62.7483051578918</v>
       </c>
       <c r="D48" t="n">
-        <v>92.0262684698608</v>
+        <v>75.0596835242478</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>61.5372679907388</v>
+        <v>67.4089038592864</v>
       </c>
       <c r="C49" t="n">
-        <v>58.2472549592308</v>
+        <v>58.9875342915905</v>
       </c>
       <c r="D49" t="n">
-        <v>64.8272810222469</v>
+        <v>75.8302734269823</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>71.7789598108747</v>
+        <v>65.1478315603903</v>
       </c>
       <c r="C50" t="n">
-        <v>70.2623209457314</v>
+        <v>61.4347251305865</v>
       </c>
       <c r="D50" t="n">
-        <v>73.295598676018</v>
+        <v>68.8609379901941</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1264,16 +1267,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>73.4880450070324</v>
+        <v>64.1517735443015</v>
       </c>
       <c r="C51" t="n">
-        <v>71.1930577630057</v>
+        <v>58.5447406755642</v>
       </c>
       <c r="D51" t="n">
-        <v>75.783032251059</v>
+        <v>69.7588064130388</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1281,16 +1284,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>74.2068846101221</v>
+        <v>88.8147313846043</v>
       </c>
       <c r="C52" t="n">
-        <v>68.3589452418957</v>
+        <v>85.6031942993479</v>
       </c>
       <c r="D52" t="n">
-        <v>80.0548239783484</v>
+        <v>92.0262684698608</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>78.5571176565248</v>
+        <v>61.5641764054992</v>
       </c>
       <c r="C53" t="n">
-        <v>73.8170319029358</v>
+        <v>58.2811549249899</v>
       </c>
       <c r="D53" t="n">
-        <v>83.2972034101138</v>
+        <v>64.8471978860085</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1315,152 +1318,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>75.9720191838602</v>
+        <v>71.0021905805038</v>
       </c>
       <c r="C54" t="n">
-        <v>70.2742259084048</v>
+        <v>69.530350436105</v>
       </c>
       <c r="D54" t="n">
-        <v>81.6698124593157</v>
+        <v>72.4740307249026</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>71.1186110411944</v>
+        <v>73.4880450070324</v>
       </c>
       <c r="C55" t="n">
-        <v>63.9373114283227</v>
+        <v>71.1930577630057</v>
       </c>
       <c r="D55" t="n">
-        <v>78.299910654066</v>
+        <v>75.783032251059</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>74.4009991515069</v>
+        <v>74.2068846101221</v>
       </c>
       <c r="C56" t="n">
-        <v>67.5744824654148</v>
+        <v>68.3589452418957</v>
       </c>
       <c r="D56" t="n">
-        <v>81.2275158375991</v>
+        <v>80.0548239783484</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="n">
-        <v>64.6350524493731</v>
+        <v>78.5571176565248</v>
       </c>
       <c r="C57" t="n">
-        <v>58.7583357384207</v>
+        <v>73.8170319029358</v>
       </c>
       <c r="D57" t="n">
-        <v>70.5117691603256</v>
+        <v>83.2972034101138</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>74.7683998050171</v>
+        <v>75.9720191838602</v>
       </c>
       <c r="C58" t="n">
-        <v>67.3588373058024</v>
+        <v>70.2742259084048</v>
       </c>
       <c r="D58" t="n">
-        <v>82.1779623042319</v>
+        <v>81.6698124593157</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>66.5735734522015</v>
+        <v>71.1186110411944</v>
       </c>
       <c r="C59" t="n">
-        <v>62.9516677976023</v>
+        <v>63.9373114283227</v>
       </c>
       <c r="D59" t="n">
-        <v>70.1954791068008</v>
+        <v>78.299910654066</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>91.7036522528563</v>
+        <v>74.4009991515069</v>
       </c>
       <c r="C60" t="n">
-        <v>88.8056730860003</v>
+        <v>67.5744824654148</v>
       </c>
       <c r="D60" t="n">
-        <v>94.6016314197124</v>
+        <v>81.2275158375991</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>64.779899196358</v>
+        <v>64.6350524493731</v>
       </c>
       <c r="C61" t="n">
-        <v>61.7583622727912</v>
+        <v>58.7583357384207</v>
       </c>
       <c r="D61" t="n">
-        <v>67.8014361199248</v>
+        <v>70.5117691603256</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>67.059891107078</v>
+        <v>74.7683998050171</v>
       </c>
       <c r="C62" t="n">
-        <v>65.4575451227378</v>
+        <v>67.3588373058024</v>
       </c>
       <c r="D62" t="n">
-        <v>68.6622370914183</v>
+        <v>82.1779623042319</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>68.5589519650655</v>
+        <v>66.5735734522015</v>
       </c>
       <c r="C63" t="n">
-        <v>66.1031495931871</v>
+        <v>62.9516677976023</v>
       </c>
       <c r="D63" t="n">
-        <v>71.0147543369439</v>
+        <v>70.1954791068008</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1485,16 +1488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>60.4221348237225</v>
+        <v>60.8358904362477</v>
       </c>
       <c r="C64" t="n">
-        <v>53.9157096550196</v>
+        <v>54.9810303214506</v>
       </c>
       <c r="D64" t="n">
-        <v>66.9285599924254</v>
+        <v>66.6907505510448</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1502,16 +1505,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>70.9023889050392</v>
+        <v>91.7036522528563</v>
       </c>
       <c r="C65" t="n">
-        <v>65.6474672667836</v>
+        <v>88.8056730860003</v>
       </c>
       <c r="D65" t="n">
-        <v>76.1573105432947</v>
+        <v>94.6016314197124</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>80.4613413128516</v>
+        <v>64.8137889911134</v>
       </c>
       <c r="C66" t="n">
-        <v>75.0204003377048</v>
+        <v>61.7989399234566</v>
       </c>
       <c r="D66" t="n">
-        <v>85.9022822879984</v>
+        <v>67.8286380587703</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1536,121 +1539,223 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>61.5178167019532</v>
+        <v>66.0504201680672</v>
       </c>
       <c r="C67" t="n">
-        <v>53.731487342378</v>
+        <v>64.496853799078</v>
       </c>
       <c r="D67" t="n">
-        <v>69.3041460615285</v>
+        <v>67.6039865370564</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>78.8756726962602</v>
+        <v>68.5589519650655</v>
       </c>
       <c r="C68" t="n">
-        <v>72.5704833213285</v>
+        <v>66.1031495931871</v>
       </c>
       <c r="D68" t="n">
-        <v>85.1808620711919</v>
+        <v>71.0147543369439</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>66.579253265189</v>
+        <v>60.4221348237225</v>
       </c>
       <c r="C69" t="n">
-        <v>60.2475757807288</v>
+        <v>53.9157096550196</v>
       </c>
       <c r="D69" t="n">
-        <v>72.9109307496491</v>
+        <v>66.9285599924254</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>63.3812239321044</v>
+        <v>70.9023889050392</v>
       </c>
       <c r="C70" t="n">
-        <v>55.2545388676841</v>
+        <v>65.6474672667836</v>
       </c>
       <c r="D70" t="n">
-        <v>71.5079089965246</v>
+        <v>76.1573105432947</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>61.6751721156507</v>
+        <v>80.4613413128516</v>
       </c>
       <c r="C71" t="n">
-        <v>57.9707061067996</v>
+        <v>75.0204003377048</v>
       </c>
       <c r="D71" t="n">
-        <v>65.3796381245019</v>
+        <v>85.9022822879984</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>90.0905778996871</v>
+        <v>61.5178167019532</v>
       </c>
       <c r="C72" t="n">
-        <v>86.9911764393559</v>
+        <v>53.731487342378</v>
       </c>
       <c r="D72" t="n">
-        <v>93.1899793600183</v>
+        <v>69.3041460615285</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>78.8756726962602</v>
+      </c>
+      <c r="C73" t="n">
+        <v>72.5704833213285</v>
+      </c>
+      <c r="D73" t="n">
+        <v>85.1808620711919</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.579253265189</v>
+      </c>
+      <c r="C74" t="n">
+        <v>60.2475757807288</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72.9109307496491</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>63.3812239321044</v>
+      </c>
+      <c r="C75" t="n">
+        <v>55.2545388676841</v>
+      </c>
+      <c r="D75" t="n">
+        <v>71.5079089965246</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>61.6751721156507</v>
+      </c>
+      <c r="C76" t="n">
+        <v>57.9707061067996</v>
+      </c>
+      <c r="D76" t="n">
+        <v>65.3796381245019</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>53.3883042361218</v>
+      </c>
+      <c r="C77" t="n">
+        <v>47.3593674306659</v>
+      </c>
+      <c r="D77" t="n">
+        <v>59.4172410415778</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B73" t="n">
-        <v>58.1768732625029</v>
-      </c>
-      <c r="C73" t="n">
-        <v>54.9737596755889</v>
-      </c>
-      <c r="D73" t="n">
-        <v>61.3799868494168</v>
-      </c>
-      <c r="E73" t="s">
-        <v>22</v>
+      <c r="B78" t="n">
+        <v>90.0905778996871</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.9911764393559</v>
+      </c>
+      <c r="D78" t="n">
+        <v>93.1899793600183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
+        <v>58.2219502181775</v>
+      </c>
+      <c r="C79" t="n">
+        <v>55.0257093373564</v>
+      </c>
+      <c r="D79" t="n">
+        <v>61.4181910989987</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -624,13 +621,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>88.6793048685814</v>
+        <v>64.3525605205821</v>
       </c>
       <c r="C13" t="n">
-        <v>86.3470679760755</v>
+        <v>61.6503070280749</v>
       </c>
       <c r="D13" t="n">
-        <v>91.0115417610873</v>
+        <v>67.0548140130892</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -638,220 +635,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60.2125725473743</v>
+      </c>
+      <c r="C14" t="n">
+        <v>59.4103468056592</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61.0147982890894</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="n">
-        <v>64.3525605205821</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61.6503070280749</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67.0548140130892</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>60.2125725473743</v>
+        <v>64.0925266903915</v>
       </c>
       <c r="C15" t="n">
-        <v>59.4103468056592</v>
+        <v>62.8381883575706</v>
       </c>
       <c r="D15" t="n">
-        <v>61.0147982890894</v>
+        <v>65.3468650232123</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>64.0925266903915</v>
+        <v>61.8663594470046</v>
       </c>
       <c r="C16" t="n">
-        <v>62.8381883575706</v>
+        <v>58.6332533479801</v>
       </c>
       <c r="D16" t="n">
-        <v>65.3468650232123</v>
+        <v>65.0994655460292</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>61.8663594470046</v>
+        <v>58.8080631025416</v>
       </c>
       <c r="C17" t="n">
-        <v>58.6332533479801</v>
+        <v>55.950997516897</v>
       </c>
       <c r="D17" t="n">
-        <v>65.0994655460292</v>
+        <v>61.6651286881863</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>58.8080631025416</v>
+        <v>76.6146993318486</v>
       </c>
       <c r="C18" t="n">
-        <v>55.950997516897</v>
+        <v>73.8447016901658</v>
       </c>
       <c r="D18" t="n">
-        <v>61.6651286881863</v>
+        <v>79.3846969735313</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>76.6146993318486</v>
+        <v>58.3747927031509</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8447016901658</v>
+        <v>54.4371099293782</v>
       </c>
       <c r="D19" t="n">
-        <v>79.3846969735313</v>
+        <v>62.3124754769236</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>58.3747927031509</v>
+        <v>69.8776758409786</v>
       </c>
       <c r="C20" t="n">
-        <v>54.4371099293782</v>
+        <v>66.3587917225267</v>
       </c>
       <c r="D20" t="n">
-        <v>62.3124754769236</v>
+        <v>73.3965599594305</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="n">
-        <v>69.8776758409786</v>
+        <v>60.1520086862106</v>
       </c>
       <c r="C21" t="n">
-        <v>66.3587917225267</v>
+        <v>56.9884021682769</v>
       </c>
       <c r="D21" t="n">
-        <v>73.3965599594305</v>
+        <v>63.3156152041444</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="n">
-        <v>60.1520086862106</v>
+        <v>64.1121495327103</v>
       </c>
       <c r="C22" t="n">
-        <v>56.9884021682769</v>
+        <v>60.0437709923307</v>
       </c>
       <c r="D22" t="n">
-        <v>63.3156152041444</v>
+        <v>68.1805280730898</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>64.1121495327103</v>
+        <v>54.7600619195046</v>
       </c>
       <c r="C23" t="n">
-        <v>60.0437709923307</v>
+        <v>52.8406028568347</v>
       </c>
       <c r="D23" t="n">
-        <v>68.1805280730898</v>
+        <v>56.6795209821746</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="n">
-        <v>54.7600619195046</v>
+        <v>49.0366088631985</v>
       </c>
       <c r="C24" t="n">
-        <v>52.8406028568347</v>
+        <v>45.9939862652864</v>
       </c>
       <c r="D24" t="n">
-        <v>56.6795209821746</v>
+        <v>52.0792314611106</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>49.0366088631985</v>
+        <v>51.0474090407938</v>
       </c>
       <c r="C25" t="n">
-        <v>45.9939862652864</v>
+        <v>49.4205534402466</v>
       </c>
       <c r="D25" t="n">
-        <v>52.0792314611106</v>
+        <v>52.674264641341</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>86.1635220125786</v>
+        <v>67.769744160178</v>
       </c>
       <c r="C26" t="n">
-        <v>84.3739277779818</v>
+        <v>66.2420077007992</v>
       </c>
       <c r="D26" t="n">
-        <v>87.9531162471754</v>
+        <v>69.2974806195568</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -859,16 +856,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>51.0474090407938</v>
+        <v>69.2046227056424</v>
       </c>
       <c r="C27" t="n">
-        <v>49.4205534402466</v>
+        <v>66.8446893378895</v>
       </c>
       <c r="D27" t="n">
-        <v>52.674264641341</v>
+        <v>71.5645560733954</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -876,186 +873,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>67.769744160178</v>
+        <v>74.6034263014294</v>
       </c>
       <c r="C28" t="n">
-        <v>66.2420077007992</v>
+        <v>68.8775949103195</v>
       </c>
       <c r="D28" t="n">
-        <v>69.2974806195568</v>
+        <v>80.3292576925394</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>69.2046227056424</v>
+        <v>62.5467949993683</v>
       </c>
       <c r="C29" t="n">
-        <v>66.8446893378895</v>
+        <v>57.0142946504697</v>
       </c>
       <c r="D29" t="n">
-        <v>71.5645560733954</v>
+        <v>68.079295348267</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>74.6034263014294</v>
+        <v>84.382761691205</v>
       </c>
       <c r="C30" t="n">
-        <v>68.8775949103195</v>
+        <v>79.6707142567559</v>
       </c>
       <c r="D30" t="n">
-        <v>80.3292576925394</v>
+        <v>89.0948091256541</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>62.5467949993683</v>
+        <v>63.5179666986991</v>
       </c>
       <c r="C31" t="n">
-        <v>57.0142946504697</v>
+        <v>56.2388067660411</v>
       </c>
       <c r="D31" t="n">
-        <v>68.079295348267</v>
+        <v>70.7971266313571</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>84.382761691205</v>
+        <v>71.8903546972766</v>
       </c>
       <c r="C32" t="n">
-        <v>79.6707142567559</v>
+        <v>65.2490293963759</v>
       </c>
       <c r="D32" t="n">
-        <v>89.0948091256541</v>
+        <v>78.5316799981772</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33" t="n">
-        <v>63.5179666986991</v>
+        <v>63.5997401606016</v>
       </c>
       <c r="C33" t="n">
-        <v>56.2388067660411</v>
+        <v>57.4247964311879</v>
       </c>
       <c r="D33" t="n">
-        <v>70.7971266313571</v>
+        <v>69.7746838900152</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>71.8903546972766</v>
+        <v>66.4476109713906</v>
       </c>
       <c r="C34" t="n">
-        <v>65.2490293963759</v>
+        <v>58.7086709253113</v>
       </c>
       <c r="D34" t="n">
-        <v>78.5316799981772</v>
+        <v>74.1865510174699</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>63.5997401606016</v>
+        <v>63.8969637303536</v>
       </c>
       <c r="C35" t="n">
-        <v>57.4247964311879</v>
+        <v>60.1572228297892</v>
       </c>
       <c r="D35" t="n">
-        <v>69.7746838900152</v>
+        <v>67.636704630918</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>66.4476109713906</v>
+        <v>57.5264020480326</v>
       </c>
       <c r="C36" t="n">
-        <v>58.7086709253113</v>
+        <v>51.0819350586667</v>
       </c>
       <c r="D36" t="n">
-        <v>74.1865510174699</v>
+        <v>63.9708690373986</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>63.8969637303536</v>
+        <v>61.6688815191437</v>
       </c>
       <c r="C37" t="n">
-        <v>60.1572228297892</v>
+        <v>58.5214620445434</v>
       </c>
       <c r="D37" t="n">
-        <v>67.636704630918</v>
+        <v>64.816300993744</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B38" t="n">
-        <v>57.5264020480326</v>
+        <v>69.8216340621404</v>
       </c>
       <c r="C38" t="n">
-        <v>51.0819350586667</v>
+        <v>68.2954266758787</v>
       </c>
       <c r="D38" t="n">
-        <v>63.9708690373986</v>
+        <v>71.3478414484021</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1063,16 +1060,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>89.6012174761382</v>
+        <v>72.7946627131208</v>
       </c>
       <c r="C39" t="n">
-        <v>86.3987584583146</v>
+        <v>70.419026311694</v>
       </c>
       <c r="D39" t="n">
-        <v>92.8036764939619</v>
+        <v>75.1702991145477</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1080,16 +1077,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>61.6688815191437</v>
+        <v>73.8474370533627</v>
       </c>
       <c r="C40" t="n">
-        <v>58.5214620445434</v>
+        <v>67.9036494022889</v>
       </c>
       <c r="D40" t="n">
-        <v>64.816300993744</v>
+        <v>79.7912247044364</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1097,169 +1094,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
-        <v>69.8216340621404</v>
+        <v>71.6690907188436</v>
       </c>
       <c r="C41" t="n">
-        <v>68.2954266758787</v>
+        <v>66.2641782592817</v>
       </c>
       <c r="D41" t="n">
-        <v>71.3478414484021</v>
+        <v>77.0740031784054</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>72.7946627131208</v>
+        <v>82.4078807290511</v>
       </c>
       <c r="C42" t="n">
-        <v>70.419026311694</v>
+        <v>77.6498856266684</v>
       </c>
       <c r="D42" t="n">
-        <v>75.1702991145477</v>
+        <v>87.1658758314338</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B43" t="n">
-        <v>73.8474370533627</v>
+        <v>57.5376551680622</v>
       </c>
       <c r="C43" t="n">
-        <v>67.9036494022889</v>
+        <v>48.9747492540707</v>
       </c>
       <c r="D43" t="n">
-        <v>79.7912247044364</v>
+        <v>66.1005610820538</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
-        <v>71.6690907188436</v>
+        <v>78.7442104370266</v>
       </c>
       <c r="C44" t="n">
-        <v>66.2641782592817</v>
+        <v>72.3035533188592</v>
       </c>
       <c r="D44" t="n">
-        <v>77.0740031784054</v>
+        <v>85.184867555194</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>82.4078807290511</v>
+        <v>68.9039943410698</v>
       </c>
       <c r="C45" t="n">
-        <v>77.6498856266684</v>
+        <v>62.7483051578918</v>
       </c>
       <c r="D45" t="n">
-        <v>87.1658758314338</v>
+        <v>75.0596835242478</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>57.5376551680622</v>
+        <v>67.4089038592864</v>
       </c>
       <c r="C46" t="n">
-        <v>48.9747492540707</v>
+        <v>58.9875342915905</v>
       </c>
       <c r="D46" t="n">
-        <v>66.1005610820538</v>
+        <v>75.8302734269823</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>78.7442104370266</v>
+        <v>65.1478315603903</v>
       </c>
       <c r="C47" t="n">
-        <v>72.3035533188592</v>
+        <v>61.4347251305865</v>
       </c>
       <c r="D47" t="n">
-        <v>85.184867555194</v>
+        <v>68.8609379901941</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>68.9039943410698</v>
+        <v>64.1517735443015</v>
       </c>
       <c r="C48" t="n">
-        <v>62.7483051578918</v>
+        <v>58.5447406755642</v>
       </c>
       <c r="D48" t="n">
-        <v>75.0596835242478</v>
+        <v>69.7588064130388</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>67.4089038592864</v>
+        <v>61.5641764054992</v>
       </c>
       <c r="C49" t="n">
-        <v>58.9875342915905</v>
+        <v>58.2811549249899</v>
       </c>
       <c r="D49" t="n">
-        <v>75.8302734269823</v>
+        <v>64.8471978860085</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B50" t="n">
-        <v>65.1478315603903</v>
+        <v>71.0021905805038</v>
       </c>
       <c r="C50" t="n">
-        <v>61.4347251305865</v>
+        <v>69.530350436105</v>
       </c>
       <c r="D50" t="n">
-        <v>68.8609379901941</v>
+        <v>72.4740307249026</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1267,16 +1264,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>64.1517735443015</v>
+        <v>73.4880450070324</v>
       </c>
       <c r="C51" t="n">
-        <v>58.5447406755642</v>
+        <v>71.1930577630057</v>
       </c>
       <c r="D51" t="n">
-        <v>69.7588064130388</v>
+        <v>75.783032251059</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1284,16 +1281,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>88.8147313846043</v>
+        <v>74.2068846101221</v>
       </c>
       <c r="C52" t="n">
-        <v>85.6031942993479</v>
+        <v>68.3589452418957</v>
       </c>
       <c r="D52" t="n">
-        <v>92.0262684698608</v>
+        <v>80.0548239783484</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1301,16 +1298,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>61.5641764054992</v>
+        <v>78.5571176565248</v>
       </c>
       <c r="C53" t="n">
-        <v>58.2811549249899</v>
+        <v>73.8170319029358</v>
       </c>
       <c r="D53" t="n">
-        <v>64.8471978860085</v>
+        <v>83.2972034101138</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1318,152 +1315,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>71.0021905805038</v>
+        <v>75.9720191838602</v>
       </c>
       <c r="C54" t="n">
-        <v>69.530350436105</v>
+        <v>70.2742259084048</v>
       </c>
       <c r="D54" t="n">
-        <v>72.4740307249026</v>
+        <v>81.6698124593157</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>73.4880450070324</v>
+        <v>71.1186110411944</v>
       </c>
       <c r="C55" t="n">
-        <v>71.1930577630057</v>
+        <v>63.9373114283227</v>
       </c>
       <c r="D55" t="n">
-        <v>75.783032251059</v>
+        <v>78.299910654066</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>74.2068846101221</v>
+        <v>74.4009991515069</v>
       </c>
       <c r="C56" t="n">
-        <v>68.3589452418957</v>
+        <v>67.5744824654148</v>
       </c>
       <c r="D56" t="n">
-        <v>80.0548239783484</v>
+        <v>81.2275158375991</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>78.5571176565248</v>
+        <v>64.6350524493731</v>
       </c>
       <c r="C57" t="n">
-        <v>73.8170319029358</v>
+        <v>58.7583357384207</v>
       </c>
       <c r="D57" t="n">
-        <v>83.2972034101138</v>
+        <v>70.5117691603256</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>75.9720191838602</v>
+        <v>74.7683998050171</v>
       </c>
       <c r="C58" t="n">
-        <v>70.2742259084048</v>
+        <v>67.3588373058024</v>
       </c>
       <c r="D58" t="n">
-        <v>81.6698124593157</v>
+        <v>82.1779623042319</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>71.1186110411944</v>
+        <v>66.5735734522015</v>
       </c>
       <c r="C59" t="n">
-        <v>63.9373114283227</v>
+        <v>62.9516677976023</v>
       </c>
       <c r="D59" t="n">
-        <v>78.299910654066</v>
+        <v>70.1954791068008</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>74.4009991515069</v>
+        <v>60.8358904362477</v>
       </c>
       <c r="C60" t="n">
-        <v>67.5744824654148</v>
+        <v>54.9810303214506</v>
       </c>
       <c r="D60" t="n">
-        <v>81.2275158375991</v>
+        <v>66.6907505510448</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>64.6350524493731</v>
+        <v>64.8137889911134</v>
       </c>
       <c r="C61" t="n">
-        <v>58.7583357384207</v>
+        <v>61.7989399234566</v>
       </c>
       <c r="D61" t="n">
-        <v>70.5117691603256</v>
+        <v>67.8286380587703</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B62" t="n">
-        <v>74.7683998050171</v>
+        <v>66.0504201680672</v>
       </c>
       <c r="C62" t="n">
-        <v>67.3588373058024</v>
+        <v>64.496853799078</v>
       </c>
       <c r="D62" t="n">
-        <v>82.1779623042319</v>
+        <v>67.6039865370564</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1471,16 +1468,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>66.5735734522015</v>
+        <v>68.5589519650655</v>
       </c>
       <c r="C63" t="n">
-        <v>62.9516677976023</v>
+        <v>66.1031495931871</v>
       </c>
       <c r="D63" t="n">
-        <v>70.1954791068008</v>
+        <v>71.0147543369439</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1488,16 +1485,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>60.8358904362477</v>
+        <v>60.4221348237225</v>
       </c>
       <c r="C64" t="n">
-        <v>54.9810303214506</v>
+        <v>53.9157096550196</v>
       </c>
       <c r="D64" t="n">
-        <v>66.6907505510448</v>
+        <v>66.9285599924254</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1505,16 +1502,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B65" t="n">
-        <v>91.7036522528563</v>
+        <v>70.9023889050392</v>
       </c>
       <c r="C65" t="n">
-        <v>88.8056730860003</v>
+        <v>65.6474672667836</v>
       </c>
       <c r="D65" t="n">
-        <v>94.6016314197124</v>
+        <v>76.1573105432947</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1522,16 +1519,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>64.8137889911134</v>
+        <v>80.4613413128516</v>
       </c>
       <c r="C66" t="n">
-        <v>61.7989399234566</v>
+        <v>75.0204003377048</v>
       </c>
       <c r="D66" t="n">
-        <v>67.8286380587703</v>
+        <v>85.9022822879984</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1539,223 +1536,121 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>66.0504201680672</v>
+        <v>61.5178167019532</v>
       </c>
       <c r="C67" t="n">
-        <v>64.496853799078</v>
+        <v>53.731487342378</v>
       </c>
       <c r="D67" t="n">
-        <v>67.6039865370564</v>
+        <v>69.3041460615285</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B68" t="n">
-        <v>68.5589519650655</v>
+        <v>78.8756726962602</v>
       </c>
       <c r="C68" t="n">
-        <v>66.1031495931871</v>
+        <v>72.5704833213285</v>
       </c>
       <c r="D68" t="n">
-        <v>71.0147543369439</v>
+        <v>85.1808620711919</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B69" t="n">
-        <v>60.4221348237225</v>
+        <v>66.579253265189</v>
       </c>
       <c r="C69" t="n">
-        <v>53.9157096550196</v>
+        <v>60.2475757807288</v>
       </c>
       <c r="D69" t="n">
-        <v>66.9285599924254</v>
+        <v>72.9109307496491</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B70" t="n">
-        <v>70.9023889050392</v>
+        <v>63.3812239321044</v>
       </c>
       <c r="C70" t="n">
-        <v>65.6474672667836</v>
+        <v>55.2545388676841</v>
       </c>
       <c r="D70" t="n">
-        <v>76.1573105432947</v>
+        <v>71.5079089965246</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
-        <v>80.4613413128516</v>
+        <v>61.6751721156507</v>
       </c>
       <c r="C71" t="n">
-        <v>75.0204003377048</v>
+        <v>57.9707061067996</v>
       </c>
       <c r="D71" t="n">
-        <v>85.9022822879984</v>
+        <v>65.3796381245019</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>61.5178167019532</v>
+        <v>53.3883042361218</v>
       </c>
       <c r="C72" t="n">
-        <v>53.731487342378</v>
+        <v>47.3593674306659</v>
       </c>
       <c r="D72" t="n">
-        <v>69.3041460615285</v>
+        <v>59.4172410415778</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>78.8756726962602</v>
+        <v>58.2219502181775</v>
       </c>
       <c r="C73" t="n">
-        <v>72.5704833213285</v>
+        <v>55.0257093373564</v>
       </c>
       <c r="D73" t="n">
-        <v>85.1808620711919</v>
+        <v>61.4181910989987</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="n">
-        <v>66.579253265189</v>
-      </c>
-      <c r="C74" t="n">
-        <v>60.2475757807288</v>
-      </c>
-      <c r="D74" t="n">
-        <v>72.9109307496491</v>
-      </c>
-      <c r="E74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" t="n">
-        <v>63.3812239321044</v>
-      </c>
-      <c r="C75" t="n">
-        <v>55.2545388676841</v>
-      </c>
-      <c r="D75" t="n">
-        <v>71.5079089965246</v>
-      </c>
-      <c r="E75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="n">
-        <v>61.6751721156507</v>
-      </c>
-      <c r="C76" t="n">
-        <v>57.9707061067996</v>
-      </c>
-      <c r="D76" t="n">
-        <v>65.3796381245019</v>
-      </c>
-      <c r="E76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" t="n">
-        <v>53.3883042361218</v>
-      </c>
-      <c r="C77" t="n">
-        <v>47.3593674306659</v>
-      </c>
-      <c r="D77" t="n">
-        <v>59.4172410415778</v>
-      </c>
-      <c r="E77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" t="n">
-        <v>90.0905778996871</v>
-      </c>
-      <c r="C78" t="n">
-        <v>86.9911764393559</v>
-      </c>
-      <c r="D78" t="n">
-        <v>93.1899793600183</v>
-      </c>
-      <c r="E78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" t="n">
-        <v>58.2219502181775</v>
-      </c>
-      <c r="C79" t="n">
-        <v>55.0257093373564</v>
-      </c>
-      <c r="D79" t="n">
-        <v>61.4181910989987</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
@@ -71,16 +71,24 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
+Other members: Global South + EU 
+(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
+Global South + China 
+(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High** 
+Global South + China + EU + various HICs 
+(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
+Global South + China + EU + various HICs 
++ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
@@ -71,24 +71,16 @@
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Low** 
-Other members: Global South + EU 
-(25-33% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **Mid** 
-Global South + China 
-(56% of world emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High** 
-Global South + China + EU + various HICs 
-(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant 
-Global South + China + EU + various HICs 
-+ Distributive effects shown using colors on world map</t>
+    <t xml:space="preserve">Supports the GCS if coverage is **Low**&lt;br&gt;Other members: Global South + EU&lt;br&gt;(25-33% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **Mid**&lt;br&gt;Global South + China&lt;br&gt;(56% of world emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;(UK, Japan, Korea, Canada...; 64-72% of emissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if coverage is **High**, **color** variant&lt;br&gt;Global South + China + EU + various HICs&lt;br&gt;+ Distributive effects shown using colors on world map</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
+++ b/xlsx/country_comparison/variables_ncs_gcs_ics_by_country_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">along</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
@@ -621,13 +624,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>64.3525605205821</v>
+        <v>88.6793048685814</v>
       </c>
       <c r="C13" t="n">
-        <v>61.6503070280749</v>
+        <v>86.3470679760755</v>
       </c>
       <c r="D13" t="n">
-        <v>67.0548140130892</v>
+        <v>91.0115417610873</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -635,220 +638,220 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>60.2125725473743</v>
+        <v>64.3525605205821</v>
       </c>
       <c r="C14" t="n">
-        <v>59.4103468056592</v>
+        <v>61.6503070280749</v>
       </c>
       <c r="D14" t="n">
-        <v>61.0147982890894</v>
+        <v>67.0548140130892</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>64.0925266903915</v>
+        <v>60.2125725473743</v>
       </c>
       <c r="C15" t="n">
-        <v>62.8381883575706</v>
+        <v>59.4103468056592</v>
       </c>
       <c r="D15" t="n">
-        <v>65.3468650232123</v>
+        <v>61.0147982890894</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>61.8663594470046</v>
+        <v>64.0925266903915</v>
       </c>
       <c r="C16" t="n">
-        <v>58.6332533479801</v>
+        <v>62.8381883575706</v>
       </c>
       <c r="D16" t="n">
-        <v>65.0994655460292</v>
+        <v>65.3468650232123</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>58.8080631025416</v>
+        <v>61.8663594470046</v>
       </c>
       <c r="C17" t="n">
-        <v>55.950997516897</v>
+        <v>58.6332533479801</v>
       </c>
       <c r="D17" t="n">
-        <v>61.6651286881863</v>
+        <v>65.0994655460292</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>76.6146993318486</v>
+        <v>58.8080631025416</v>
       </c>
       <c r="C18" t="n">
-        <v>73.8447016901658</v>
+        <v>55.950997516897</v>
       </c>
       <c r="D18" t="n">
-        <v>79.3846969735313</v>
+        <v>61.6651286881863</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>58.3747927031509</v>
+        <v>76.6146993318486</v>
       </c>
       <c r="C19" t="n">
-        <v>54.4371099293782</v>
+        <v>73.8447016901658</v>
       </c>
       <c r="D19" t="n">
-        <v>62.3124754769236</v>
+        <v>79.3846969735313</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="n">
-        <v>69.8776758409786</v>
+        <v>58.3747927031509</v>
       </c>
       <c r="C20" t="n">
-        <v>66.3587917225267</v>
+        <v>54.4371099293782</v>
       </c>
       <c r="D20" t="n">
-        <v>73.3965599594305</v>
+        <v>62.3124754769236</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>60.1520086862106</v>
+        <v>69.8776758409786</v>
       </c>
       <c r="C21" t="n">
-        <v>56.9884021682769</v>
+        <v>66.3587917225267</v>
       </c>
       <c r="D21" t="n">
-        <v>63.3156152041444</v>
+        <v>73.3965599594305</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>64.1121495327103</v>
+        <v>60.1520086862106</v>
       </c>
       <c r="C22" t="n">
-        <v>60.0437709923307</v>
+        <v>56.9884021682769</v>
       </c>
       <c r="D22" t="n">
-        <v>68.1805280730898</v>
+        <v>63.3156152041444</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="n">
-        <v>54.7600619195046</v>
+        <v>64.1121495327103</v>
       </c>
       <c r="C23" t="n">
-        <v>52.8406028568347</v>
+        <v>60.0437709923307</v>
       </c>
       <c r="D23" t="n">
-        <v>56.6795209821746</v>
+        <v>68.1805280730898</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="n">
-        <v>49.0366088631985</v>
+        <v>54.7600619195046</v>
       </c>
       <c r="C24" t="n">
-        <v>45.9939862652864</v>
+        <v>52.8406028568347</v>
       </c>
       <c r="D24" t="n">
-        <v>52.0792314611106</v>
+        <v>56.6795209821746</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>51.0474090407938</v>
+        <v>49.0366088631985</v>
       </c>
       <c r="C25" t="n">
-        <v>49.4205534402466</v>
+        <v>45.9939862652864</v>
       </c>
       <c r="D25" t="n">
-        <v>52.674264641341</v>
+        <v>52.0792314611106</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>67.769744160178</v>
+        <v>86.1635220125786</v>
       </c>
       <c r="C26" t="n">
-        <v>66.2420077007992</v>
+        <v>84.3739277779818</v>
       </c>
       <c r="D26" t="n">
-        <v>69.2974806195568</v>
+        <v>87.9531162471754</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -856,16 +859,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>69.2046227056424</v>
+        <v>51.0474090407938</v>
       </c>
       <c r="C27" t="n">
-        <v>66.8446893378895</v>
+        <v>49.4205534402466</v>
       </c>
       <c r="D27" t="n">
-        <v>71.5645560733954</v>
+        <v>52.674264641341</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -873,186 +876,186 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>74.6034263014294</v>
+        <v>67.769744160178</v>
       </c>
       <c r="C28" t="n">
-        <v>68.8775949103195</v>
+        <v>66.2420077007992</v>
       </c>
       <c r="D28" t="n">
-        <v>80.3292576925394</v>
+        <v>69.2974806195568</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>62.5467949993683</v>
+        <v>69.2046227056424</v>
       </c>
       <c r="C29" t="n">
-        <v>57.0142946504697</v>
+        <v>66.8446893378895</v>
       </c>
       <c r="D29" t="n">
-        <v>68.079295348267</v>
+        <v>71.5645560733954</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>84.382761691205</v>
+        <v>74.6034263014294</v>
       </c>
       <c r="C30" t="n">
-        <v>79.6707142567559</v>
+        <v>68.8775949103195</v>
       </c>
       <c r="D30" t="n">
-        <v>89.0948091256541</v>
+        <v>80.3292576925394</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>63.5179666986991</v>
+        <v>62.5467949993683</v>
       </c>
       <c r="C31" t="n">
-        <v>56.2388067660411</v>
+        <v>57.0142946504697</v>
       </c>
       <c r="D31" t="n">
-        <v>70.7971266313571</v>
+        <v>68.079295348267</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>71.8903546972766</v>
+        <v>84.382761691205</v>
       </c>
       <c r="C32" t="n">
-        <v>65.2490293963759</v>
+        <v>79.6707142567559</v>
       </c>
       <c r="D32" t="n">
-        <v>78.5316799981772</v>
+        <v>89.0948091256541</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>63.5997401606016</v>
+        <v>63.5179666986991</v>
       </c>
       <c r="C33" t="n">
-        <v>57.4247964311879</v>
+        <v>56.2388067660411</v>
       </c>
       <c r="D33" t="n">
-        <v>69.7746838900152</v>
+        <v>70.7971266313571</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>66.4476109713906</v>
+        <v>71.8903546972766</v>
       </c>
       <c r="C34" t="n">
-        <v>58.7086709253113</v>
+        <v>65.2490293963759</v>
       </c>
       <c r="D34" t="n">
-        <v>74.1865510174699</v>
+        <v>78.5316799981772</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>63.8969637303536</v>
+        <v>63.5997401606016</v>
       </c>
       <c r="C35" t="n">
-        <v>60.1572228297892</v>
+        <v>57.4247964311879</v>
       </c>
       <c r="D35" t="n">
-        <v>67.636704630918</v>
+        <v>69.7746838900152</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>57.5264020480326</v>
+        <v>66.4476109713906</v>
       </c>
       <c r="C36" t="n">
-        <v>51.0819350586667</v>
+        <v>58.7086709253113</v>
       </c>
       <c r="D36" t="n">
-        <v>63.9708690373986</v>
+        <v>74.1865510174699</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>61.6688815191437</v>
+        <v>63.8969637303536</v>
       </c>
       <c r="C37" t="n">
-        <v>58.5214620445434</v>
+        <v>60.1572228297892</v>
       </c>
       <c r="D37" t="n">
-        <v>64.816300993744</v>
+        <v>67.636704630918</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
-        <v>69.8216340621404</v>
+        <v>57.5264020480326</v>
       </c>
       <c r="C38" t="n">
-        <v>68.2954266758787</v>
+        <v>51.0819350586667</v>
       </c>
       <c r="D38" t="n">
-        <v>71.3478414484021</v>
+        <v>63.9708690373986</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1060,16 +1063,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>72.7946627131208</v>
+        <v>89.6012174761382</v>
       </c>
       <c r="C39" t="n">
-        <v>70.419026311694</v>
+        <v>86.3987584583146</v>
       </c>
       <c r="D39" t="n">
-        <v>75.1702991145477</v>
+        <v>92.8036764939619</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1077,16 +1080,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>73.8474370533627</v>
+        <v>61.6688815191437</v>
       </c>
       <c r="C40" t="n">
-        <v>67.9036494022889</v>
+        <v>58.5214620445434</v>
       </c>
       <c r="D40" t="n">
-        <v>79.7912247044364</v>
+        <v>64.816300993744</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1094,169 +1097,169 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B41" t="n">
-        <v>71.6690907188436</v>
+        <v>69.8216340621404</v>
       </c>
       <c r="C41" t="n">
-        <v>66.2641782592817</v>
+        <v>68.2954266758787</v>
       </c>
       <c r="D41" t="n">
-        <v>77.0740031784054</v>
+        <v>71.3478414484021</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>82.4078807290511</v>
+        <v>72.7946627131208</v>
       </c>
       <c r="C42" t="n">
-        <v>77.6498856266684</v>
+        <v>70.419026311694</v>
       </c>
       <c r="D42" t="n">
-        <v>87.1658758314338</v>
+        <v>75.1702991145477</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>57.5376551680622</v>
+        <v>73.8474370533627</v>
       </c>
       <c r="C43" t="n">
-        <v>48.9747492540707</v>
+        <v>67.9036494022889</v>
       </c>
       <c r="D43" t="n">
-        <v>66.1005610820538</v>
+        <v>79.7912247044364</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>78.7442104370266</v>
+        <v>71.6690907188436</v>
       </c>
       <c r="C44" t="n">
-        <v>72.3035533188592</v>
+        <v>66.2641782592817</v>
       </c>
       <c r="D44" t="n">
-        <v>85.184867555194</v>
+        <v>77.0740031784054</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B45" t="n">
-        <v>68.9039943410698</v>
+        <v>82.4078807290511</v>
       </c>
       <c r="C45" t="n">
-        <v>62.7483051578918</v>
+        <v>77.6498856266684</v>
       </c>
       <c r="D45" t="n">
-        <v>75.0596835242478</v>
+        <v>87.1658758314338</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" t="n">
-        <v>67.4089038592864</v>
+        <v>57.5376551680622</v>
       </c>
       <c r="C46" t="n">
-        <v>58.9875342915905</v>
+        <v>48.9747492540707</v>
       </c>
       <c r="D46" t="n">
-        <v>75.8302734269823</v>
+        <v>66.1005610820538</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47" t="n">
-        <v>65.1478315603903</v>
+        <v>78.7442104370266</v>
       </c>
       <c r="C47" t="n">
-        <v>61.4347251305865</v>
+        <v>72.3035533188592</v>
       </c>
       <c r="D47" t="n">
-        <v>68.8609379901941</v>
+        <v>85.184867555194</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>64.1517735443015</v>
+        <v>68.9039943410698</v>
       </c>
       <c r="C48" t="n">
-        <v>58.5447406755642</v>
+        <v>62.7483051578918</v>
       </c>
       <c r="D48" t="n">
-        <v>69.7588064130388</v>
+        <v>75.0596835242478</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>61.5641764054992</v>
+        <v>67.4089038592864</v>
       </c>
       <c r="C49" t="n">
-        <v>58.2811549249899</v>
+        <v>58.9875342915905</v>
       </c>
       <c r="D49" t="n">
-        <v>64.8471978860085</v>
+        <v>75.8302734269823</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>71.0021905805038</v>
+        <v>65.1478315603903</v>
       </c>
       <c r="C50" t="n">
-        <v>69.530350436105</v>
+        <v>61.4347251305865</v>
       </c>
       <c r="D50" t="n">
-        <v>72.4740307249026</v>
+        <v>68.8609379901941</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1264,16 +1267,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B51" t="n">
-        <v>73.4880450070324</v>
+        <v>64.1517735443015</v>
       </c>
       <c r="C51" t="n">
-        <v>71.1930577630057</v>
+        <v>58.5447406755642</v>
       </c>
       <c r="D51" t="n">
-        <v>75.783032251059</v>
+        <v>69.7588064130388</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
@@ -1281,16 +1284,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
-        <v>74.2068846101221</v>
+        <v>88.8147313846043</v>
       </c>
       <c r="C52" t="n">
-        <v>68.3589452418957</v>
+        <v>85.6031942993479</v>
       </c>
       <c r="D52" t="n">
-        <v>80.0548239783484</v>
+        <v>92.0262684698608</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1298,16 +1301,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>78.5571176565248</v>
+        <v>61.5641764054992</v>
       </c>
       <c r="C53" t="n">
-        <v>73.8170319029358</v>
+        <v>58.2811549249899</v>
       </c>
       <c r="D53" t="n">
-        <v>83.2972034101138</v>
+        <v>64.8471978860085</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1315,152 +1318,152 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>75.9720191838602</v>
+        <v>71.0021905805038</v>
       </c>
       <c r="C54" t="n">
-        <v>70.2742259084048</v>
+        <v>69.530350436105</v>
       </c>
       <c r="D54" t="n">
-        <v>81.6698124593157</v>
+        <v>72.4740307249026</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>71.1186110411944</v>
+        <v>73.4880450070324</v>
       </c>
       <c r="C55" t="n">
-        <v>63.9373114283227</v>
+        <v>71.1930577630057</v>
       </c>
       <c r="D55" t="n">
-        <v>78.299910654066</v>
+        <v>75.783032251059</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>74.4009991515069</v>
+        <v>74.2068846101221</v>
       </c>
       <c r="C56" t="n">
-        <v>67.5744824654148</v>
+        <v>68.3589452418957</v>
       </c>
       <c r="D56" t="n">
-        <v>81.2275158375991</v>
+        <v>80.0548239783484</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57" t="n">
-        <v>64.6350524493731</v>
+        <v>78.5571176565248</v>
       </c>
       <c r="C57" t="n">
-        <v>58.7583357384207</v>
+        <v>73.8170319029358</v>
       </c>
       <c r="D57" t="n">
-        <v>70.5117691603256</v>
+        <v>83.2972034101138</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
-        <v>74.7683998050171</v>
+        <v>75.9720191838602</v>
       </c>
       <c r="C58" t="n">
-        <v>67.3588373058024</v>
+        <v>70.2742259084048</v>
       </c>
       <c r="D58" t="n">
-        <v>82.1779623042319</v>
+        <v>81.6698124593157</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" t="n">
-        <v>66.5735734522015</v>
+        <v>71.1186110411944</v>
       </c>
       <c r="C59" t="n">
-        <v>62.9516677976023</v>
+        <v>63.9373114283227</v>
       </c>
       <c r="D59" t="n">
-        <v>70.1954791068008</v>
+        <v>78.299910654066</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60" t="n">
-        <v>60.8358904362477</v>
+        <v>74.4009991515069</v>
       </c>
       <c r="C60" t="n">
-        <v>54.9810303214506</v>
+        <v>67.5744824654148</v>
       </c>
       <c r="D60" t="n">
-        <v>66.6907505510448</v>
+        <v>81.2275158375991</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B61" t="n">
-        <v>64.8137889911134</v>
+        <v>64.6350524493731</v>
       </c>
       <c r="C61" t="n">
-        <v>61.7989399234566</v>
+        <v>58.7583357384207</v>
       </c>
       <c r="D61" t="n">
-        <v>67.8286380587703</v>
+        <v>70.5117691603256</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" t="n">
-        <v>66.0504201680672</v>
+        <v>74.7683998050171</v>
       </c>
       <c r="C62" t="n">
-        <v>64.496853799078</v>
+        <v>67.3588373058024</v>
       </c>
       <c r="D62" t="n">
-        <v>67.6039865370564</v>
+        <v>82.1779623042319</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -1468,16 +1471,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B63" t="n">
-        <v>68.5589519650655</v>
+        <v>66.5735734522015</v>
       </c>
       <c r="C63" t="n">
-        <v>66.1031495931871</v>
+        <v>62.9516677976023</v>
       </c>
       <c r="D63" t="n">
-        <v>71.0147543369439</v>
+        <v>70.1954791068008</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
@@ -1485,16 +1488,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B64" t="n">
-        <v>60.4221348237225</v>
+        <v>60.8358904362477</v>
       </c>
       <c r="C64" t="n">
-        <v>53.9157096550196</v>
+        <v>54.9810303214506</v>
       </c>
       <c r="D64" t="n">
-        <v>66.9285599924254</v>
+        <v>66.6907505510448</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
@@ -1502,16 +1505,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>70.9023889050392</v>
+        <v>91.7036522528563</v>
       </c>
       <c r="C65" t="n">
-        <v>65.6474672667836</v>
+        <v>88.8056730860003</v>
       </c>
       <c r="D65" t="n">
-        <v>76.1573105432947</v>
+        <v>94.6016314197124</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>80.4613413128516</v>
+        <v>64.8137889911134</v>
       </c>
       <c r="C66" t="n">
-        <v>75.0204003377048</v>
+        <v>61.7989399234566</v>
       </c>
       <c r="D66" t="n">
-        <v>85.9022822879984</v>
+        <v>67.8286380587703</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -1536,121 +1539,223 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B67" t="n">
-        <v>61.5178167019532</v>
+        <v>66.0504201680672</v>
       </c>
       <c r="C67" t="n">
-        <v>53.731487342378</v>
+        <v>64.496853799078</v>
       </c>
       <c r="D67" t="n">
-        <v>69.3041460615285</v>
+        <v>67.6039865370564</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>78.8756726962602</v>
+        <v>68.5589519650655</v>
       </c>
       <c r="C68" t="n">
-        <v>72.5704833213285</v>
+        <v>66.1031495931871</v>
       </c>
       <c r="D68" t="n">
-        <v>85.1808620711919</v>
+        <v>71.0147543369439</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>66.579253265189</v>
+        <v>60.4221348237225</v>
       </c>
       <c r="C69" t="n">
-        <v>60.2475757807288</v>
+        <v>53.9157096550196</v>
       </c>
       <c r="D69" t="n">
-        <v>72.9109307496491</v>
+        <v>66.9285599924254</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>63.3812239321044</v>
+        <v>70.9023889050392</v>
       </c>
       <c r="C70" t="n">
-        <v>55.2545388676841</v>
+        <v>65.6474672667836</v>
       </c>
       <c r="D70" t="n">
-        <v>71.5079089965246</v>
+        <v>76.1573105432947</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>61.6751721156507</v>
+        <v>80.4613413128516</v>
       </c>
       <c r="C71" t="n">
-        <v>57.9707061067996</v>
+        <v>75.0204003377048</v>
       </c>
       <c r="D71" t="n">
-        <v>65.3796381245019</v>
+        <v>85.9022822879984</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>53.3883042361218</v>
+        <v>61.5178167019532</v>
       </c>
       <c r="C72" t="n">
-        <v>47.3593674306659</v>
+        <v>53.731487342378</v>
       </c>
       <c r="D72" t="n">
-        <v>59.4172410415778</v>
+        <v>69.3041460615285</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>78.8756726962602</v>
+      </c>
+      <c r="C73" t="n">
+        <v>72.5704833213285</v>
+      </c>
+      <c r="D73" t="n">
+        <v>85.1808620711919</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="n">
+        <v>66.579253265189</v>
+      </c>
+      <c r="C74" t="n">
+        <v>60.2475757807288</v>
+      </c>
+      <c r="D74" t="n">
+        <v>72.9109307496491</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="n">
+        <v>63.3812239321044</v>
+      </c>
+      <c r="C75" t="n">
+        <v>55.2545388676841</v>
+      </c>
+      <c r="D75" t="n">
+        <v>71.5079089965246</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="n">
+        <v>61.6751721156507</v>
+      </c>
+      <c r="C76" t="n">
+        <v>57.9707061067996</v>
+      </c>
+      <c r="D76" t="n">
+        <v>65.3796381245019</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="n">
+        <v>53.3883042361218</v>
+      </c>
+      <c r="C77" t="n">
+        <v>47.3593674306659</v>
+      </c>
+      <c r="D77" t="n">
+        <v>59.4172410415778</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B78" t="n">
+        <v>90.0905778996871</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.9911764393559</v>
+      </c>
+      <c r="D78" t="n">
+        <v>93.1899793600183</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="n">
         <v>58.2219502181775</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C79" t="n">
         <v>55.0257093373564</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D79" t="n">
         <v>61.4181910989987</v>
       </c>
-      <c r="E73" t="s">
-        <v>22</v>
+      <c r="E79" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
